--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251013_201508.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251013_201508.xlsx
@@ -5251,7 +5251,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
